--- a/starter/src/main/resources/static/file/微语客服系统功能清单.xlsx
+++ b/starter/src/main/resources/static/file/微语客服系统功能清单.xlsx
@@ -1167,7 +1167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1416,9 +1416,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1428,10 +1426,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1584,7 +1593,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1596,34 +1605,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1708,7 +1717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,27 +1809,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2162,10 +2174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B62" sqref="A2:B63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2185,8 +2197,8 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2202,12 +2214,12 @@
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="41" spans="1:6">
-      <c r="A3" s="30"/>
+    <row r="3" ht="21" spans="1:6">
+      <c r="A3" s="32"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31" t="s">
         <v>7</v>
@@ -2216,60 +2228,60 @@
         <v>8</v>
       </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="62" spans="1:6">
-      <c r="A4" s="30"/>
+    <row r="4" ht="41" spans="1:6">
+      <c r="A4" s="32"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="41" spans="1:6">
-      <c r="A5" s="30"/>
+    <row r="5" ht="21" spans="1:6">
+      <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="82" spans="1:6">
-      <c r="A6" s="30"/>
+    <row r="6" ht="41" spans="1:6">
+      <c r="A6" s="32"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="62" spans="1:6">
-      <c r="A7" s="30"/>
+    <row r="7" ht="41" spans="1:6">
+      <c r="A7" s="32"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="41" spans="1:6">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31" t="s">
         <v>18</v>
@@ -2278,24 +2290,24 @@
         <v>19</v>
       </c>
       <c r="E8" s="31"/>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="62" spans="1:6">
-      <c r="A9" s="30"/>
+    <row r="9" ht="41" spans="1:6">
+      <c r="A9" s="32"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="41" spans="1:6">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>23</v>
@@ -2304,12 +2316,12 @@
         <v>24</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:6">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
@@ -2318,72 +2330,72 @@
       <c r="E11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="62" spans="1:6">
-      <c r="A12" s="30"/>
+    <row r="12" ht="41" spans="1:6">
+      <c r="A12" s="32"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="82" spans="1:6">
-      <c r="A13" s="30"/>
+    <row r="13" ht="41" spans="1:6">
+      <c r="A13" s="32"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="62" spans="1:6">
-      <c r="A14" s="30"/>
+    <row r="14" ht="41" spans="1:6">
+      <c r="A14" s="32"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="41" spans="1:6">
-      <c r="A15" s="30"/>
+    <row r="15" ht="21" spans="1:6">
+      <c r="A15" s="32"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="62" spans="1:6">
-      <c r="A16" s="30"/>
+    <row r="16" ht="41" spans="1:6">
+      <c r="A16" s="32"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="82" spans="1:6">
-      <c r="A17" s="30"/>
+    <row r="17" ht="62" spans="1:6">
+      <c r="A17" s="32"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31" t="s">
@@ -2392,48 +2404,48 @@
       <c r="E17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="123" spans="1:6">
-      <c r="A18" s="30"/>
+    <row r="18" ht="82" spans="1:6">
+      <c r="A18" s="32"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" ht="41" spans="1:6">
-      <c r="A19" s="30"/>
+    <row r="19" ht="21" spans="1:6">
+      <c r="A19" s="32"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="41" spans="1:6">
-      <c r="A20" s="30"/>
+    <row r="20" ht="21" spans="1:6">
+      <c r="A20" s="32"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="62" spans="1:6">
-      <c r="A21" s="30"/>
+    <row r="21" ht="41" spans="1:6">
+      <c r="A21" s="32"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31" t="s">
         <v>48</v>
@@ -2444,24 +2456,24 @@
       <c r="E21" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="41" spans="1:6">
-      <c r="A22" s="30"/>
+    <row r="22" ht="21" spans="1:6">
+      <c r="A22" s="32"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="62" spans="1:6">
-      <c r="A23" s="30"/>
+    <row r="23" ht="41" spans="1:6">
+      <c r="A23" s="32"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31" t="s">
@@ -2470,176 +2482,176 @@
       <c r="E23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="41" spans="1:6">
-      <c r="A24" s="30"/>
+    <row r="24" ht="21" spans="1:6">
+      <c r="A24" s="32"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" ht="41" spans="1:6">
-      <c r="A25" s="30"/>
+    <row r="25" ht="21" spans="1:6">
+      <c r="A25" s="32"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="82" spans="1:6">
-      <c r="A26" s="30"/>
+    <row r="26" ht="41" spans="1:6">
+      <c r="A26" s="32"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="31"/>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:6">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" ht="82" spans="1:6">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32" t="s">
+    <row r="28" ht="41" spans="1:6">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="37" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="62" spans="1:6">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
+    <row r="29" ht="41" spans="1:6">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="62" spans="1:6">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
+    <row r="30" ht="41" spans="1:6">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="37" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="41" spans="1:6">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="37" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" ht="41" spans="1:6">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32" t="s">
+    <row r="32" ht="21" spans="1:6">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="37" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:6">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="37" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:6">
-      <c r="A34" s="30"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="37" t="s">
+      <c r="E34" s="33"/>
+      <c r="F34" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" ht="62" spans="1:6">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+    <row r="35" ht="41" spans="1:6">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="37" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:6">
-      <c r="A36" s="30"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="37" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" ht="82" spans="1:6">
-      <c r="A37" s="30"/>
+    <row r="37" ht="62" spans="1:6">
+      <c r="A37" s="32"/>
       <c r="B37" s="31" t="s">
         <v>87</v>
       </c>
@@ -2648,12 +2660,12 @@
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" ht="41" spans="1:6">
-      <c r="A38" s="30"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
         <v>90</v>
@@ -2662,60 +2674,60 @@
         <v>91</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" ht="62" spans="1:6">
-      <c r="A39" s="30"/>
+    <row r="39" ht="41" spans="1:6">
+      <c r="A39" s="32"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" ht="62" spans="1:6">
-      <c r="A40" s="30"/>
+    <row r="40" ht="41" spans="1:6">
+      <c r="A40" s="32"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" ht="123" spans="1:6">
-      <c r="A41" s="30"/>
+    <row r="41" ht="82" spans="1:6">
+      <c r="A41" s="32"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31" t="s">
         <v>97</v>
       </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="37" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" ht="41" spans="1:6">
-      <c r="A42" s="30"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31" t="s">
         <v>99</v>
       </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" ht="41" spans="1:6">
-      <c r="A43" s="30"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
         <v>101</v>
@@ -2724,72 +2736,72 @@
         <v>102</v>
       </c>
       <c r="E43" s="31"/>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" ht="41" spans="1:6">
-      <c r="A44" s="30"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="31"/>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" ht="41" spans="1:6">
-      <c r="A45" s="30"/>
+    <row r="45" ht="21" spans="1:6">
+      <c r="A45" s="32"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31" t="s">
         <v>106</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" ht="41" spans="1:6">
-      <c r="A46" s="30"/>
+    <row r="46" ht="21" spans="1:6">
+      <c r="A46" s="32"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31" t="s">
         <v>108</v>
       </c>
       <c r="E46" s="31"/>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" ht="41" spans="1:6">
-      <c r="A47" s="30"/>
+    <row r="47" ht="21" spans="1:6">
+      <c r="A47" s="32"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31" t="s">
         <v>110</v>
       </c>
       <c r="E47" s="31"/>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" ht="62" spans="1:6">
-      <c r="A48" s="30"/>
+    <row r="48" ht="41" spans="1:6">
+      <c r="A48" s="32"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31" t="s">
         <v>112</v>
       </c>
       <c r="E48" s="31"/>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:6">
-      <c r="A49" s="30"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31" t="s">
         <v>114</v>
@@ -2798,84 +2810,84 @@
         <v>115</v>
       </c>
       <c r="E49" s="31"/>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" ht="41" spans="1:6">
-      <c r="A50" s="30"/>
+    <row r="50" ht="21" spans="1:6">
+      <c r="A50" s="32"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="31"/>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:6">
-      <c r="A51" s="30"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31" t="s">
         <v>119</v>
       </c>
       <c r="E51" s="31"/>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:6">
-      <c r="A52" s="30"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="31"/>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" ht="41" spans="1:6">
-      <c r="A53" s="30"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31" t="s">
         <v>123</v>
       </c>
       <c r="E53" s="31"/>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" ht="82" spans="1:6">
-      <c r="A54" s="30"/>
+    <row r="54" ht="62" spans="1:6">
+      <c r="A54" s="32"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31" t="s">
         <v>125</v>
       </c>
       <c r="E54" s="31"/>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:6">
-      <c r="A55" s="30"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="31"/>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" ht="62" spans="1:6">
-      <c r="A56" s="30"/>
+    <row r="56" ht="41" spans="1:6">
+      <c r="A56" s="32"/>
       <c r="B56" s="31" t="s">
         <v>129</v>
       </c>
@@ -2884,62 +2896,49 @@
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" ht="62" spans="1:6">
-      <c r="A57" s="30"/>
+    <row r="57" ht="41" spans="1:6">
+      <c r="A57" s="32"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" ht="41" spans="1:6">
-      <c r="A58" s="30"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" ht="41" spans="1:6">
-      <c r="A59" s="30"/>
+    <row r="59" ht="21" spans="1:6">
+      <c r="A59" s="34"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="30"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="30"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="30"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="33"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A63"/>
     <mergeCell ref="B2:B27"/>
     <mergeCell ref="B28:B36"/>
     <mergeCell ref="B37:B55"/>
@@ -3215,7 +3214,7 @@
   <sheetPr/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
